--- a/config_6.8/xian_shi_hong_bao_server.xlsx
+++ b/config_6.8/xian_shi_hong_bao_server.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id|任务id</t>
   </si>
@@ -25,33 +25,7 @@
     <t>task_id|解锁的任务id</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0B0B0B"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>unlock_spend</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0B0B0B"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0B0B0B"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(消耗红包劵)</t>
-    </r>
+    <t>unlock_spend|(消耗福利劵)</t>
   </si>
   <si>
     <t>unlock_num_type|解锁的次数的类型(1终身，2每日)</t>
@@ -60,7 +34,7 @@
     <t>unlock_num|解锁次数</t>
   </si>
   <si>
-    <t>everyday_total|每日总分数，-1表示无限</t>
+    <t>everyday_total|每日总份数，-1表示无限</t>
   </si>
   <si>
     <t>permission_key|解锁的权限值</t>
@@ -69,85 +43,34 @@
     <t>reset_hour|重置时间</t>
   </si>
   <si>
-    <t>任意游戏累计赢金1000</t>
+    <t>任意游戏累计消耗120万</t>
   </si>
   <si>
-    <t>拥有20000鲸币</t>
+    <t>xshb_042_deblocking_v4</t>
   </si>
   <si>
-    <t>匹配场三星及以上场次对局10局</t>
+    <t>任意游戏累计消耗80万</t>
+  </si>
+  <si>
+    <t>xshb_042_deblocking_v3</t>
+  </si>
+  <si>
+    <t>任意游戏累计消耗30万</t>
+  </si>
+  <si>
+    <t>xshb_042_deblocking_v2</t>
+  </si>
+  <si>
+    <t>任意游戏累计消耗20万</t>
+  </si>
+  <si>
+    <t>xshb_042_deblocking_v1</t>
   </si>
   <si>
     <t>单笔充值≥6元</t>
   </si>
   <si>
-    <t>匹配场任意场次对局8局</t>
-  </si>
-  <si>
-    <t>xshb_042_deblocking_v1</t>
-  </si>
-  <si>
-    <t>匹配场三星及以上场次对局20局</t>
-  </si>
-  <si>
-    <t>xshb_042_deblocking_v2</t>
-  </si>
-  <si>
-    <t>任意游戏赢金1000</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>任意游戏累计赢金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0万（彩云麻将）</t>
-    </r>
-  </si>
-  <si>
-    <t>xshb_042_deblocking_v6</t>
-  </si>
-  <si>
-    <t>xshb_042_deblocking_v10</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金500万</t>
-  </si>
-  <si>
-    <t>xshb_042_deblocking_v8</t>
+    <t>携带金币20万</t>
   </si>
 </sst>
 </file>
@@ -155,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -201,14 +124,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,50 +209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,42 +225,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,8 +249,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,7 +293,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,133 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,37 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,19 +520,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,8 +544,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,7 +554,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,16 +588,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,138 +617,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -842,15 +765,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -869,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1205,11 +1128,11 @@
   <dimension ref="A1:W620"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1284,21 +1207,24 @@
         <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
       </c>
       <c r="G2" s="6">
-        <v>-1</v>
+        <v>50</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="I2" s="1">
         <v>9</v>
       </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="6"/>
       <c r="Q2" s="9"/>
       <c r="T2" s="10"/>
     </row>
@@ -1310,19 +1236,22 @@
         <v>21579</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="6">
-        <v>-1</v>
+        <v>100</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="I3" s="1">
         <v>9</v>
@@ -1338,19 +1267,22 @@
         <v>21580</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>-1</v>
+        <v>100</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="I4" s="1">
         <v>9</v>
@@ -1366,19 +1298,22 @@
         <v>21581</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
       <c r="G5" s="1">
-        <v>-1</v>
+        <v>400</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="I5" s="1">
         <v>9</v>
@@ -1393,24 +1328,22 @@
       <c r="B6" s="1">
         <v>21582</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="1">
+        <v>300</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
         <v>100</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H6" s="6"/>
       <c r="I6" s="1">
         <v>9</v>
       </c>
@@ -1424,146 +1357,63 @@
         <v>21583</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="1">
         <v>9</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:17">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>21584</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1">
-        <v>9</v>
-      </c>
+    <row r="8" s="1" customFormat="1" ht="24.75" customHeight="1" spans="2:17">
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="1"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="24.75" customHeight="1" spans="1:17">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>21585</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2">
-        <v>11000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2">
-        <v>9</v>
-      </c>
+    <row r="9" s="2" customFormat="1" ht="24.75" customHeight="1" spans="3:17">
+      <c r="C9" s="8"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="2"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="24.75" customHeight="1" spans="1:17">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>21586</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2">
-        <v>20</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="2">
-        <v>9</v>
-      </c>
+    <row r="10" s="2" customFormat="1" ht="24.75" customHeight="1" spans="3:17">
+      <c r="C10" s="8"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="2"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:17">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>21587</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>10</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="1">
-        <v>9</v>
-      </c>
+    <row r="11" s="1" customFormat="1" ht="24.75" customHeight="1" spans="5:17">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="1"/>
       <c r="Q11" s="9"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="16.5" spans="1:17">
@@ -1671,12 +1521,12 @@
       <c r="Q32" s="9"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="16.5" spans="16:17">
-      <c r="P33" s="8"/>
+      <c r="P33" s="6"/>
       <c r="Q33" s="9"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="16.5" spans="9:17">
-      <c r="I34" s="8"/>
-      <c r="P34" s="8"/>
+      <c r="I34" s="6"/>
+      <c r="P34" s="6"/>
       <c r="Q34" s="9"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="16.5" spans="17:17">
@@ -1725,9 +1575,9 @@
       <c r="Q49" s="9"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="16.5" spans="5:17">
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
       <c r="Q50" s="9"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="16.5" spans="17:17">
@@ -1747,7 +1597,7 @@
       <c r="Q55" s="9"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="16.5" spans="14:17">
-      <c r="N56" s="8"/>
+      <c r="N56" s="6"/>
       <c r="Q56" s="9"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="16.5" spans="5:17">
@@ -1792,9 +1642,9 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -1803,7 +1653,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="8"/>
+      <c r="P68" s="6"/>
       <c r="Q68" s="9"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="16.5" spans="5:17">
@@ -1822,7 +1672,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="8"/>
+      <c r="H72" s="6"/>
       <c r="J72" s="12"/>
       <c r="Q72" s="9"/>
     </row>
@@ -1830,7 +1680,7 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="8"/>
+      <c r="H73" s="6"/>
       <c r="Q73" s="9"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="16.5" spans="5:17">

--- a/config_6.8/xian_shi_hong_bao_server.xlsx
+++ b/config_6.8/xian_shi_hong_bao_server.xlsx
@@ -78,12 +78,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +96,6 @@
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -124,6 +117,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -131,9 +168,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,7 +196,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,100 +251,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,13 +260,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,19 +286,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,13 +334,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,19 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,67 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,25 +436,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +495,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -517,11 +519,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,46 +577,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,138 +610,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -768,25 +761,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -795,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,7 +1125,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1201,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>21578</v>
+        <v>1000659</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -1233,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>21579</v>
+        <v>1000660</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1263,8 +1256,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>21580</v>
+      <c r="B4" s="1">
+        <v>1000661</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1295,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>21581</v>
+        <v>1000662</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -1326,7 +1319,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>21582</v>
+        <v>1000663</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -1354,7 +1347,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21583</v>
+        <v>1000664</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -1379,33 +1372,17 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="24.75" customHeight="1" spans="2:17">
       <c r="B8" s="6"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="1"/>
       <c r="Q8" s="9"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="24.75" customHeight="1" spans="3:17">
       <c r="C9" s="8"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="2"/>
       <c r="Q9" s="11"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="24.75" customHeight="1" spans="3:17">
       <c r="C10" s="8"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="2"/>
       <c r="Q10" s="11"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="24.75" customHeight="1" spans="5:17">
@@ -1413,7 +1390,6 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="1"/>
       <c r="Q11" s="9"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="16.5" spans="1:17">
